--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F496E-A50C-475A-88E9-AF1B8FF16EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC6900B-A420-4DA0-8CEC-B4227B98FFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="1704" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="5568" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionProto" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>SkeletonHandler</t>
+  </si>
+  <si>
+    <t>FireBallInitHandler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurnInitHandler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -565,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -673,67 +681,83 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="1" customFormat="1">
+    <row r="9" spans="2:8">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="5">
+        <v>3001</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="C11" s="5">
-        <v>3001</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="5">
+        <v>4001</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="5">
+        <v>4002</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="C14" s="5">
-        <v>4002</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="5">
+        <v>5001</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:8">
       <c r="C16" s="5">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC6900B-A420-4DA0-8CEC-B4227B98FFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3993285B-5174-4F91-8BC4-51230242706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="5568" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1632" yWindow="4872" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ActionProto" sheetId="1" r:id="rId1"/>
+    <sheet name="ActionProto" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +38,7 @@
     <author>NullStackSuger</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{5606F385-A23A-4F27-BC73-CF57646A9056}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{47EF4651-06C8-446D-B680-54C1DAD52708}">
       <text>
         <r>
           <rPr>
@@ -40,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{6ABF298E-0273-42ED-8FFD-6240A0747C50}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{150ACA45-28F8-47B0-A7FE-2F86ABF4B48A}">
       <text>
         <r>
           <rPr>
@@ -55,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{5229A02A-4423-4B83-B0CE-CDDEF8AC1EB2}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{86AD39B4-EF02-47E6-8AC8-80AA61AE0E9D}">
       <text>
         <r>
           <rPr>
@@ -76,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -85,62 +98,46 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所属分组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestAction1001Handler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestAction1002Handler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCastAction3001Handler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultActionHandler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BurnHandler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RunningType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Repeat</t>
   </si>
   <si>
     <t>Repeat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Once</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FireBallHandler</t>
@@ -150,37 +147,36 @@
   </si>
   <si>
     <t>FireBallInitHandler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BurnInitHandler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -213,10 +209,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF787878"/>
-      <name val="JetBrains Mono"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,28 +243,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,241 +558,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCFEBAF-5F7E-4C78-8BD5-F40D02DD90EF}">
+  <dimension ref="C2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="C3" s="7" t="s">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <f>E6*1000+F6</f>
+        <v>1001</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="7" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <f>E7*1000+F7</f>
+        <v>1002</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="C5" s="7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <f>E9*1000+F9</f>
+        <v>2001</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <f>E10*1000+F10</f>
+        <v>2002</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <f>E12*1000+F12</f>
+        <v>3001</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1">
-      <c r="C7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="1" customFormat="1">
-      <c r="C8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="C10" s="5">
-        <v>3001</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="C12" s="5">
-        <v>4001</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="C13" s="5">
-        <v>4002</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="C15" s="5">
-        <v>5001</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="C16" s="5">
-        <v>5002</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="5">
-        <v>6001</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3993285B-5174-4F91-8BC4-51230242706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07265C-840A-45FB-B71C-339CD3EF056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="4872" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="5220" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionProto" sheetId="2" r:id="rId1"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCFEBAF-5F7E-4C78-8BD5-F40D02DD90EF}">
   <dimension ref="C2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07265C-840A-45FB-B71C-339CD3EF056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5102B8-7E77-40AF-9A77-9E17CE68819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="5220" windowWidth="19440" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionProto" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -143,9 +143,6 @@
     <t>FireBallHandler</t>
   </si>
   <si>
-    <t>SkeletonHandler</t>
-  </si>
-  <si>
     <t>FireBallInitHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +160,130 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpStickHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrenadeHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrenadeInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpStickInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EyepieceHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EyepieceInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时执行单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonLookHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonJumpHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonMoveHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonChangeBulletHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonCastCHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonCastEHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonCastQHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPEndHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortBulletInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortBulletHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEndHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmageddonInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmageddonEndHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmageddonMoveHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmageddonCastHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmageddonDisableActionHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,30 +680,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCFEBAF-5F7E-4C78-8BD5-F40D02DD90EF}">
-  <dimension ref="C2:G12"/>
+  <dimension ref="C2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17.21875" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,13 +715,16 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,13 +735,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,14 +760,17 @@
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <f>E6*1000+F6</f>
         <v>1001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -650,8 +781,11 @@
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f>E7*1000+F7</f>
         <v>1002</v>
@@ -668,14 +802,17 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <f>E9*1000+F9</f>
         <v>2001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -686,8 +823,11 @@
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <f>E10*1000+F10</f>
         <v>2002</v>
@@ -704,14 +844,17 @@
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
-        <f>E12*1000+F12</f>
+        <f t="shared" ref="C12:C19" si="0">E12*1000+F12</f>
         <v>3001</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -720,7 +863,598 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>3002</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>3003</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3004</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>3005</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>3006</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>3007</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>3008</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <f>E21*1000+F21</f>
+        <v>4001</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <f>E22*1000+F22</f>
+        <v>4002</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
+        <f>E24*1000 +F24</f>
+        <v>5001</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
+        <f>E25*1000+F25</f>
+        <v>5002</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <f>E27*1000+F27</f>
+        <v>6001</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
+        <f>E28*1000+F28</f>
+        <v>6002</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C30" s="2">
+        <f>E30*1000+F30</f>
+        <v>7001</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
+        <f>E31*1000+F31</f>
+        <v>7002</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <f>E32*1000+F32</f>
+        <v>7003</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C34" s="2">
+        <f>E34*1000+F34</f>
+        <v>8001</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C35" s="2">
+        <f>E35*1000+F35</f>
+        <v>8002</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C37" s="2">
+        <f>E37*1000+F37</f>
+        <v>9001</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C38" s="2">
+        <f>E38*1000+F38</f>
+        <v>9002</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C40" s="2">
+        <f>E40*1000+F40</f>
+        <v>10001</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="1">
         <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C41" s="2">
+        <f>E41*1000+F41</f>
+        <v>10002</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C42" s="2">
+        <f>E42*1000+F42</f>
+        <v>10003</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="1">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C44" s="2">
+        <f>E44*1000+F44</f>
+        <v>11001</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C45" s="2">
+        <f>E45*1000+F45</f>
+        <v>11002</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C46" s="2">
+        <f>E46*1000+F46</f>
+        <v>11003</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="1">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C47" s="2">
+        <f>E47*1000+F47</f>
+        <v>11004</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="1">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C48" s="2">
+        <f>E48*1000+F48</f>
+        <v>11005</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="1">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5102B8-7E77-40AF-9A77-9E17CE68819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19926D-353D-47C6-AD7E-E76943C07FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>ArmageddonDisableActionHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrapplerInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrapplerEndHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrapplerHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,6 +388,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -680,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCFEBAF-5F7E-4C78-8BD5-F40D02DD90EF}">
-  <dimension ref="C2:H48"/>
+  <dimension ref="C2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -781,7 +796,7 @@
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -802,9 +817,12 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
@@ -823,7 +841,7 @@
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
     </row>
@@ -844,9 +862,12 @@
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
@@ -865,7 +886,7 @@
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
     </row>
@@ -886,7 +907,7 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -907,8 +928,8 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="H14" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="15" x14ac:dyDescent="0.3">
@@ -928,8 +949,8 @@
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="H15" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="15" x14ac:dyDescent="0.3">
@@ -949,7 +970,7 @@
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
     </row>
@@ -970,7 +991,7 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
     </row>
@@ -991,7 +1012,7 @@
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1012,9 +1033,12 @@
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
@@ -1033,7 +1057,7 @@
       <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1054,9 +1078,12 @@
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <v>0</v>
       </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
@@ -1075,7 +1102,7 @@
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1096,9 +1123,12 @@
       <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C27" s="2">
@@ -1117,7 +1147,7 @@
       <c r="G27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1138,9 +1168,12 @@
       <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C30" s="2">
@@ -1159,7 +1192,7 @@
       <c r="G30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1180,7 +1213,7 @@
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1201,9 +1234,12 @@
       <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C34" s="2">
@@ -1222,7 +1258,7 @@
       <c r="G34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1243,9 +1279,12 @@
       <c r="G35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C37" s="2">
@@ -1264,7 +1303,7 @@
       <c r="G37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1285,9 +1324,12 @@
       <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
@@ -1306,7 +1348,7 @@
       <c r="G40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1327,7 +1369,7 @@
       <c r="G41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1348,9 +1390,12 @@
       <c r="G42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="3:8" ht="15" x14ac:dyDescent="0.3">
       <c r="C44" s="2">
@@ -1369,7 +1414,7 @@
       <c r="G44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1390,7 +1435,7 @@
       <c r="G45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1411,7 +1456,7 @@
       <c r="G46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1432,7 +1477,7 @@
       <c r="G47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1453,7 +1498,73 @@
       <c r="G48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C50" s="2">
+        <f>E50*1000+F50</f>
+        <v>12001</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="1">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C51" s="2">
+        <f>E51*1000+F51</f>
+        <v>12002</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="C52" s="2">
+        <f>E52*1000+F52</f>
+        <v>12003</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-Sync\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D34A005-5C65-4119-9D7C-94DC6E2FC863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B006BE3-5688-4DC0-A917-445AA5E46BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,15 +277,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GrapplerInitHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrapplerHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrapplerEndHandler</t>
+    <t>GrappleInitHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrappleHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrappleEndHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
